--- a/src/main/webapp/WEB-INF/books/startzss.xlsx
+++ b/src/main/webapp/WEB-INF/books/startzss.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/KEIKAI-SPACE/dev-ref/src/main/webapp/WEB-INF/books/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA96E3-DB04-4043-B213-119372A1E419}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="50" windowWidth="12120" windowHeight="8580"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="20120" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="10" r:id="rId1"/>
@@ -22,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Market!$A$1:$Z$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Profitability!$A$1:$Z$52</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -336,7 +342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -345,7 +351,7 @@
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1402,16 +1408,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1498,18 +1504,46 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="26"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
-      <c:perspective val="30"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:pie3DChart>
@@ -1549,7 +1583,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BDA-A345-BA9E-5C49A1CA125C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
@@ -1570,9 +1618,11 @@
           <c:h val="0.37044745057232054"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1599,7 +1649,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1037" name="Chart 4"/>
+        <xdr:cNvPr id="1037" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1662,7 +1718,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1694,9 +1750,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1728,6 +1802,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1903,9 +1995,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor indexed="12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K43"/>
@@ -1914,19 +2006,19 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" style="4" customWidth="1"/>
-    <col min="6" max="9" width="11.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="4" customWidth="1"/>
+    <col min="6" max="9" width="11.6640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.08984375" style="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -1941,7 +2033,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="6" customHeight="1">
+    <row r="2" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -1954,7 +2046,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="6" customHeight="1">
+    <row r="3" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="18"/>
       <c r="C3" s="14"/>
@@ -1967,7 +2059,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="197" t="s">
         <v>100</v>
@@ -1982,7 +2074,7 @@
       <c r="J4" s="198"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" ht="6" customHeight="1">
+    <row r="5" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="19"/>
       <c r="C5" s="14"/>
@@ -1995,7 +2087,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" ht="30.75" customHeight="1">
+    <row r="6" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="196" t="s">
         <v>40</v>
@@ -2012,7 +2104,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" ht="14.5">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="21" t="s">
         <v>10</v>
@@ -2029,7 +2121,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="14.5">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="25" t="s">
         <v>46</v>
@@ -2046,7 +2138,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="14.5">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="25" t="s">
         <v>97</v>
@@ -2063,7 +2155,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="14.5">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="29" t="s">
         <v>70</v>
@@ -2080,7 +2172,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="13.5" customHeight="1">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -2093,7 +2185,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" s="11" customFormat="1" ht="21.75" customHeight="1">
+    <row r="12" spans="1:11" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="35"/>
       <c r="B12" s="196" t="s">
         <v>40</v>
@@ -2118,7 +2210,7 @@
       </c>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="1:11" ht="14.5">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="21" t="s">
         <v>44</v>
@@ -2144,7 +2236,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="14.5">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="25" t="s">
         <v>45</v>
@@ -2170,7 +2262,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="14.5">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="25" t="s">
         <v>46</v>
@@ -2200,7 +2292,7 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="14.5">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="25" t="s">
         <v>47</v>
@@ -2230,7 +2322,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="14.5">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="25" t="s">
         <v>48</v>
@@ -2256,7 +2348,7 @@
       </c>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="14.5">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="25" t="s">
         <v>10</v>
@@ -2282,7 +2374,7 @@
       </c>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="14.5">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="25" t="s">
         <v>50</v>
@@ -2312,7 +2404,7 @@
       </c>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="14.5">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="25" t="s">
         <v>49</v>
@@ -2338,7 +2430,7 @@
       </c>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="14.5">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="25" t="s">
         <v>52</v>
@@ -2364,7 +2456,7 @@
       </c>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="14.5">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="25" t="s">
         <v>97</v>
@@ -2390,7 +2482,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="14.5">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="25" t="s">
         <v>70</v>
@@ -2416,7 +2508,7 @@
       </c>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="14.5">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="25" t="s">
         <v>59</v>
@@ -2446,7 +2538,7 @@
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="14.5">
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="25" t="s">
         <v>98</v>
@@ -2476,7 +2568,7 @@
       </c>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="14.5">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="25" t="s">
         <v>72</v>
@@ -2502,7 +2594,7 @@
       </c>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" ht="14.5">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="25" t="s">
         <v>73</v>
@@ -2528,7 +2620,7 @@
       </c>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" ht="14.5">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="25" t="s">
         <v>60</v>
@@ -2558,7 +2650,7 @@
       </c>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" ht="14.5">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="25" t="s">
         <v>61</v>
@@ -2584,7 +2676,7 @@
       </c>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" ht="14.5">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
@@ -2597,7 +2689,7 @@
       <c r="J30" s="47"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" ht="14.5">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="48" t="s">
         <v>57</v>
@@ -2623,7 +2715,7 @@
       </c>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" ht="14.5">
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="25" t="s">
         <v>54</v>
@@ -2649,7 +2741,7 @@
       </c>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" ht="14.5">
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="25" t="s">
         <v>56</v>
@@ -2679,7 +2771,7 @@
       </c>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" ht="14.5">
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="25" t="s">
         <v>74</v>
@@ -2705,7 +2797,7 @@
       </c>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" ht="14.5">
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="25" t="s">
         <v>75</v>
@@ -2731,7 +2823,7 @@
       </c>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" ht="14.5">
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="25" t="s">
         <v>58</v>
@@ -2757,7 +2849,7 @@
       </c>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" ht="14.5">
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="25" t="s">
         <v>71</v>
@@ -2783,7 +2875,7 @@
       </c>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" ht="14.5">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="25" t="s">
         <v>55</v>
@@ -2809,7 +2901,7 @@
       </c>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="53"/>
       <c r="C39" s="14"/>
@@ -2822,7 +2914,7 @@
       <c r="J39" s="56"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" ht="14.5">
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="25" t="s">
         <v>53</v>
@@ -2848,7 +2940,7 @@
       </c>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" ht="14.5">
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="29" t="s">
         <v>51</v>
@@ -2874,7 +2966,7 @@
       </c>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2887,7 +2979,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -2919,9 +3011,9 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor indexed="26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AK60"/>
@@ -2930,48 +3022,48 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="29" style="4" customWidth="1"/>
-    <col min="6" max="6" width="1.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.08984375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="1.6328125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="2.6328125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="3.08984375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="10.36328125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="1.6328125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="10.36328125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.6328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.08984375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.36328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="1.6328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="2.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.6328125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="3.08984375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.36328125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="1.6328125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.36328125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="2.6328125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.6328125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="3.08984375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="10.36328125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="1.6328125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="10.36328125" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.08984375" style="1"/>
+    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="3.1640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="1.6640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="1.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="2.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="3.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="1.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="2.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="3.1640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.33203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="1.6640625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="10.33203125" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.5">
+    <row r="1" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -3011,7 +3103,7 @@
       <c r="AI1" s="14"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:37" ht="6" customHeight="1">
+    <row r="2" spans="1:37" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61"/>
       <c r="B2" s="14"/>
       <c r="C2" s="58"/>
@@ -3049,7 +3141,7 @@
       <c r="AI2" s="14"/>
       <c r="AJ2" s="14"/>
     </row>
-    <row r="3" spans="1:37" ht="21.75" customHeight="1">
+    <row r="3" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="194" t="s">
         <v>2</v>
@@ -3058,50 +3150,50 @@
       <c r="D3" s="195"/>
       <c r="E3" s="195"/>
       <c r="F3" s="195"/>
-      <c r="G3" s="199" t="s">
+      <c r="G3" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="199" t="s">
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200"/>
-      <c r="P3" s="200" t="s">
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="200"/>
-      <c r="R3" s="200"/>
-      <c r="S3" s="199" t="s">
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="200"/>
-      <c r="U3" s="200"/>
-      <c r="V3" s="200"/>
-      <c r="W3" s="200"/>
-      <c r="X3" s="200"/>
-      <c r="Y3" s="199" t="s">
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="200"/>
-      <c r="AB3" s="200"/>
-      <c r="AC3" s="200"/>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="199" t="s">
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="200"/>
-      <c r="AG3" s="200"/>
-      <c r="AH3" s="200"/>
-      <c r="AI3" s="200"/>
-      <c r="AJ3" s="200"/>
-    </row>
-    <row r="4" spans="1:37">
+      <c r="AF3" s="202"/>
+      <c r="AG3" s="202"/>
+      <c r="AH3" s="202"/>
+      <c r="AI3" s="202"/>
+      <c r="AJ3" s="202"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="62"/>
       <c r="B4" s="166" t="s">
         <v>5</v>
@@ -3142,7 +3234,7 @@
       <c r="AJ4" s="172"/>
       <c r="AK4" s="6"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
@@ -3181,7 +3273,7 @@
       <c r="AJ5" s="66"/>
       <c r="AK5" s="6"/>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="62"/>
       <c r="B6" s="64"/>
       <c r="C6" s="64" t="s">
@@ -3266,7 +3358,7 @@
       <c r="AJ6" s="66"/>
       <c r="AK6" s="6"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="62"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
@@ -3322,7 +3414,7 @@
       <c r="AJ7" s="66"/>
       <c r="AK7" s="6"/>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="62"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64" t="s">
@@ -3373,7 +3465,7 @@
       <c r="AJ8" s="66"/>
       <c r="AK8" s="6"/>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="62"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64" t="s">
@@ -3429,7 +3521,7 @@
       <c r="AJ9" s="17"/>
       <c r="AK9" s="6"/>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="62"/>
       <c r="B10" s="76"/>
       <c r="C10" s="76" t="s">
@@ -3479,7 +3571,7 @@
       <c r="AJ10" s="79"/>
       <c r="AK10" s="6"/>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="62"/>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
@@ -3518,7 +3610,7 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="6"/>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="62"/>
       <c r="B12" s="64"/>
       <c r="C12" s="64" t="s">
@@ -3628,7 +3720,7 @@
       </c>
       <c r="AK12" s="6"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="62"/>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
@@ -3640,51 +3732,51 @@
       <c r="G13" s="66"/>
       <c r="H13" s="67"/>
       <c r="I13" s="58"/>
-      <c r="J13" s="201">
+      <c r="J13" s="199">
         <f>Input!F20</f>
         <v>23000</v>
       </c>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="200"/>
       <c r="M13" s="86"/>
       <c r="N13" s="67"/>
       <c r="O13" s="58"/>
-      <c r="P13" s="201">
+      <c r="P13" s="199">
         <f>Input!G20</f>
         <v>25000</v>
       </c>
-      <c r="Q13" s="202"/>
-      <c r="R13" s="202"/>
+      <c r="Q13" s="200"/>
+      <c r="R13" s="200"/>
       <c r="S13" s="86"/>
       <c r="T13" s="67"/>
       <c r="U13" s="58"/>
-      <c r="V13" s="201">
+      <c r="V13" s="199">
         <f>Input!H20</f>
         <v>22500</v>
       </c>
-      <c r="W13" s="202"/>
-      <c r="X13" s="202"/>
+      <c r="W13" s="200"/>
+      <c r="X13" s="200"/>
       <c r="Y13" s="86"/>
       <c r="Z13" s="67"/>
       <c r="AA13" s="58"/>
-      <c r="AB13" s="201">
+      <c r="AB13" s="199">
         <f>Input!I20</f>
         <v>25600</v>
       </c>
-      <c r="AC13" s="202"/>
-      <c r="AD13" s="202"/>
+      <c r="AC13" s="200"/>
+      <c r="AD13" s="200"/>
       <c r="AE13" s="86"/>
       <c r="AF13" s="67"/>
       <c r="AG13" s="58"/>
-      <c r="AH13" s="201">
+      <c r="AH13" s="199">
         <f>Input!J20</f>
         <v>25600</v>
       </c>
-      <c r="AI13" s="202"/>
-      <c r="AJ13" s="202"/>
+      <c r="AI13" s="200"/>
+      <c r="AJ13" s="200"/>
       <c r="AK13" s="6"/>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="62"/>
       <c r="B14" s="64"/>
       <c r="C14" s="64" t="s">
@@ -3735,7 +3827,7 @@
       <c r="AJ14" s="66"/>
       <c r="AK14" s="6"/>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64" t="s">
@@ -3791,7 +3883,7 @@
       <c r="AJ15" s="66"/>
       <c r="AK15" s="6"/>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="62"/>
       <c r="B16" s="76"/>
       <c r="C16" s="76" t="s">
@@ -3841,7 +3933,7 @@
       <c r="AJ16" s="87"/>
       <c r="AK16" s="6"/>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="62"/>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
@@ -3880,7 +3972,7 @@
       <c r="AJ17" s="66"/>
       <c r="AK17" s="6"/>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="62"/>
       <c r="B18" s="64"/>
       <c r="C18" s="203" t="s">
@@ -3990,7 +4082,7 @@
       </c>
       <c r="AK18" s="6"/>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
       <c r="B19" s="64"/>
       <c r="C19" s="203"/>
@@ -4002,51 +4094,51 @@
       <c r="G19" s="66"/>
       <c r="H19" s="67"/>
       <c r="I19" s="58"/>
-      <c r="J19" s="201">
+      <c r="J19" s="199">
         <f>Input!F15</f>
         <v>125000</v>
       </c>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="200"/>
       <c r="M19" s="86"/>
       <c r="N19" s="67"/>
       <c r="O19" s="58"/>
-      <c r="P19" s="201">
+      <c r="P19" s="199">
         <f>Input!G15</f>
         <v>126000</v>
       </c>
-      <c r="Q19" s="202"/>
-      <c r="R19" s="202"/>
+      <c r="Q19" s="200"/>
+      <c r="R19" s="200"/>
       <c r="S19" s="86"/>
       <c r="T19" s="67"/>
       <c r="U19" s="58"/>
-      <c r="V19" s="201">
+      <c r="V19" s="199">
         <f>Input!H15</f>
         <v>126500</v>
       </c>
-      <c r="W19" s="202"/>
-      <c r="X19" s="202"/>
+      <c r="W19" s="200"/>
+      <c r="X19" s="200"/>
       <c r="Y19" s="86"/>
       <c r="Z19" s="67"/>
       <c r="AA19" s="58"/>
-      <c r="AB19" s="201">
+      <c r="AB19" s="199">
         <f>Input!I15</f>
         <v>136000</v>
       </c>
-      <c r="AC19" s="202"/>
-      <c r="AD19" s="202"/>
+      <c r="AC19" s="200"/>
+      <c r="AD19" s="200"/>
       <c r="AE19" s="86"/>
       <c r="AF19" s="150"/>
       <c r="AG19" s="58"/>
-      <c r="AH19" s="201">
+      <c r="AH19" s="199">
         <f>Input!J15</f>
         <v>136000</v>
       </c>
-      <c r="AI19" s="202"/>
-      <c r="AJ19" s="202"/>
+      <c r="AI19" s="200"/>
+      <c r="AJ19" s="200"/>
       <c r="AK19" s="6"/>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
@@ -4085,7 +4177,7 @@
       <c r="AJ20" s="66"/>
       <c r="AK20" s="6"/>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64" t="s">
@@ -4136,7 +4228,7 @@
       <c r="AJ21" s="66"/>
       <c r="AK21" s="6"/>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="62"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64" t="s">
@@ -4192,7 +4284,7 @@
       <c r="AJ22" s="66"/>
       <c r="AK22" s="6"/>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
       <c r="B23" s="76"/>
       <c r="C23" s="76" t="s">
@@ -4242,7 +4334,7 @@
       <c r="AJ23" s="87"/>
       <c r="AK23" s="6"/>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -4281,7 +4373,7 @@
       <c r="AJ24" s="66"/>
       <c r="AK24" s="6"/>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="62"/>
       <c r="B25" s="64"/>
       <c r="C25" s="203" t="s">
@@ -4366,7 +4458,7 @@
       <c r="AJ25" s="66"/>
       <c r="AK25" s="6"/>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
       <c r="B26" s="64"/>
       <c r="C26" s="203"/>
@@ -4422,7 +4514,7 @@
       <c r="AJ26" s="66"/>
       <c r="AK26" s="6"/>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="62"/>
       <c r="B27" s="64"/>
       <c r="C27" s="88"/>
@@ -4461,7 +4553,7 @@
       <c r="AJ27" s="66"/>
       <c r="AK27" s="6"/>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="62"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64" t="s">
@@ -4512,7 +4604,7 @@
       <c r="AJ28" s="66"/>
       <c r="AK28" s="6"/>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="62"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64" t="s">
@@ -4568,7 +4660,7 @@
       <c r="AJ29" s="66"/>
       <c r="AK29" s="6"/>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="62"/>
       <c r="B30" s="76"/>
       <c r="C30" s="76" t="s">
@@ -4618,7 +4710,7 @@
       <c r="AJ30" s="87"/>
       <c r="AK30" s="6"/>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="62"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
@@ -4657,7 +4749,7 @@
       <c r="AJ31" s="66"/>
       <c r="AK31" s="6"/>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="62"/>
       <c r="B32" s="64"/>
       <c r="C32" s="64" t="s">
@@ -4742,7 +4834,7 @@
       <c r="AJ32" s="66"/>
       <c r="AK32" s="6"/>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="62"/>
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
@@ -4798,7 +4890,7 @@
       <c r="AJ33" s="66"/>
       <c r="AK33" s="6"/>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="62"/>
       <c r="B34" s="64"/>
       <c r="C34" s="64" t="s">
@@ -4849,7 +4941,7 @@
       <c r="AJ34" s="66"/>
       <c r="AK34" s="6"/>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="62"/>
       <c r="B35" s="64"/>
       <c r="C35" s="64" t="s">
@@ -4905,7 +4997,7 @@
       <c r="AJ35" s="66"/>
       <c r="AK35" s="6"/>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="62"/>
       <c r="B36" s="76"/>
       <c r="C36" s="76" t="s">
@@ -4955,7 +5047,7 @@
       <c r="AJ36" s="87"/>
       <c r="AK36" s="6"/>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="62"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
@@ -4994,7 +5086,7 @@
       <c r="AJ37" s="66"/>
       <c r="AK37" s="6"/>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="62"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64" t="s">
@@ -5079,7 +5171,7 @@
       <c r="AJ38" s="66"/>
       <c r="AK38" s="6"/>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="62"/>
       <c r="B39" s="64"/>
       <c r="C39" s="64"/>
@@ -5135,7 +5227,7 @@
       <c r="AJ39" s="66"/>
       <c r="AK39" s="6"/>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" s="62"/>
       <c r="B40" s="64"/>
       <c r="C40" s="64" t="s">
@@ -5186,7 +5278,7 @@
       <c r="AJ40" s="66"/>
       <c r="AK40" s="6"/>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" s="62"/>
       <c r="B41" s="64"/>
       <c r="C41" s="64" t="s">
@@ -5242,7 +5334,7 @@
       <c r="AJ41" s="66"/>
       <c r="AK41" s="6"/>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" s="62"/>
       <c r="B42" s="76"/>
       <c r="C42" s="76" t="s">
@@ -5292,7 +5384,7 @@
       <c r="AJ42" s="87"/>
       <c r="AK42" s="6"/>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" s="62"/>
       <c r="B43" s="64"/>
       <c r="C43" s="64"/>
@@ -5331,7 +5423,7 @@
       <c r="AJ43" s="66"/>
       <c r="AK43" s="6"/>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" s="89"/>
       <c r="B44" s="66" t="s">
         <v>99</v>
@@ -5372,7 +5464,7 @@
       <c r="AJ44" s="66"/>
       <c r="AK44" s="6"/>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" s="62"/>
       <c r="B45" s="64"/>
       <c r="C45" s="64"/>
@@ -5411,7 +5503,7 @@
       <c r="AJ45" s="58"/>
       <c r="AK45" s="6"/>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" s="62"/>
       <c r="B46" s="64"/>
       <c r="C46" s="203" t="s">
@@ -5496,7 +5588,7 @@
       <c r="AJ46" s="58"/>
       <c r="AK46" s="6"/>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" s="62"/>
       <c r="B47" s="64"/>
       <c r="C47" s="203"/>
@@ -5552,7 +5644,7 @@
       <c r="AJ47" s="58"/>
       <c r="AK47" s="6"/>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" s="62"/>
       <c r="B48" s="64"/>
       <c r="C48" s="88"/>
@@ -5591,7 +5683,7 @@
       <c r="AJ48" s="58"/>
       <c r="AK48" s="6"/>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" s="62"/>
       <c r="B49" s="64"/>
       <c r="C49" s="64" t="s">
@@ -5642,7 +5734,7 @@
       <c r="AJ49" s="58"/>
       <c r="AK49" s="6"/>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" s="62"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64" t="s">
@@ -5698,7 +5790,7 @@
       <c r="AJ50" s="58"/>
       <c r="AK50" s="6"/>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" s="62"/>
       <c r="B51" s="76"/>
       <c r="C51" s="76" t="s">
@@ -5748,7 +5840,7 @@
       <c r="AJ51" s="77"/>
       <c r="AK51" s="6"/>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" s="62"/>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -5787,7 +5879,7 @@
       <c r="AJ52" s="58"/>
       <c r="AK52" s="6"/>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53" s="62"/>
       <c r="B53" s="64"/>
       <c r="C53" s="64" t="s">
@@ -5872,7 +5964,7 @@
       <c r="AJ53" s="58"/>
       <c r="AK53" s="6"/>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" s="62"/>
       <c r="B54" s="64"/>
       <c r="C54" s="64" t="s">
@@ -5930,7 +6022,7 @@
       <c r="AJ54" s="58"/>
       <c r="AK54" s="6"/>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" s="62"/>
       <c r="B55" s="64"/>
       <c r="C55" s="64"/>
@@ -5969,7 +6061,7 @@
       <c r="AJ55" s="58"/>
       <c r="AK55" s="6"/>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" s="62"/>
       <c r="B56" s="64"/>
       <c r="C56" s="64" t="s">
@@ -6020,7 +6112,7 @@
       <c r="AJ56" s="58"/>
       <c r="AK56" s="6"/>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57" s="62"/>
       <c r="B57" s="64"/>
       <c r="C57" s="64" t="s">
@@ -6076,7 +6168,7 @@
       <c r="AJ57" s="17"/>
       <c r="AK57" s="6"/>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" s="62"/>
       <c r="B58" s="76"/>
       <c r="C58" s="76" t="s">
@@ -6126,7 +6218,7 @@
       <c r="AJ58" s="79"/>
       <c r="AK58" s="6"/>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -6164,7 +6256,7 @@
       <c r="AI59" s="14"/>
       <c r="AJ59" s="14"/>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="16"/>
@@ -6204,6 +6296,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="AH13:AJ13"/>
     <mergeCell ref="P19:R19"/>
     <mergeCell ref="Y3:AD3"/>
@@ -6212,16 +6314,6 @@
     <mergeCell ref="AB19:AD19"/>
     <mergeCell ref="AE3:AJ3"/>
     <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="P13:R13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6232,9 +6324,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor indexed="31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA35"/>
@@ -6243,38 +6335,38 @@
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="3" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.6328125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="3.08984375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.36328125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="2.6328125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="8.6328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.08984375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.36328125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.6328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.08984375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.36328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.6328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.6328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="3.08984375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.36328125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.08984375" style="1"/>
+    <col min="10" max="10" width="10.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="3.1640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="3.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.5">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -6305,7 +6397,7 @@
       <c r="Z1" s="14"/>
       <c r="AA1" s="14"/>
     </row>
-    <row r="2" spans="1:27" ht="6" customHeight="1">
+    <row r="2" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="14"/>
       <c r="C2" s="58"/>
@@ -6334,7 +6426,7 @@
       <c r="Z2" s="14"/>
       <c r="AA2" s="14"/>
     </row>
-    <row r="3" spans="1:27" ht="21" customHeight="1">
+    <row r="3" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="164" t="s">
         <v>28</v>
@@ -6375,7 +6467,7 @@
       <c r="Z3" s="205"/>
       <c r="AA3" s="14"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="62"/>
       <c r="B4" s="166" t="s">
         <v>5</v>
@@ -6406,7 +6498,7 @@
       <c r="Z4" s="172"/>
       <c r="AA4" s="93"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
       <c r="B5" s="94"/>
       <c r="C5" s="95"/>
@@ -6435,7 +6527,7 @@
       <c r="Z5" s="17"/>
       <c r="AA5" s="93"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="62"/>
       <c r="B6" s="95"/>
       <c r="C6" s="204" t="s">
@@ -6510,7 +6602,7 @@
       </c>
       <c r="AA6" s="93"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="62"/>
       <c r="B7" s="95"/>
       <c r="C7" s="204"/>
@@ -6556,7 +6648,7 @@
       </c>
       <c r="AA7" s="93"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="62"/>
       <c r="B8" s="95"/>
       <c r="C8" s="100"/>
@@ -6585,7 +6677,7 @@
       <c r="Z8" s="68"/>
       <c r="AA8" s="93"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="62"/>
       <c r="B9" s="95"/>
       <c r="C9" s="95" t="s">
@@ -6626,7 +6718,7 @@
       <c r="Z9" s="68"/>
       <c r="AA9" s="93"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="62"/>
       <c r="B10" s="95"/>
       <c r="C10" s="95" t="s">
@@ -6672,7 +6764,7 @@
       <c r="Z10" s="68"/>
       <c r="AA10" s="93"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="62"/>
       <c r="B11" s="95"/>
       <c r="C11" s="95" t="s">
@@ -6712,7 +6804,7 @@
       <c r="Z11" s="68"/>
       <c r="AA11" s="93"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="62"/>
       <c r="B12" s="104"/>
       <c r="C12" s="105"/>
@@ -6741,7 +6833,7 @@
       <c r="Z12" s="113"/>
       <c r="AA12" s="93"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="62"/>
       <c r="B13" s="95"/>
       <c r="C13" s="204" t="s">
@@ -6816,7 +6908,7 @@
       </c>
       <c r="AA13" s="93"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="62"/>
       <c r="B14" s="95"/>
       <c r="C14" s="204"/>
@@ -6862,7 +6954,7 @@
       </c>
       <c r="AA14" s="93"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
       <c r="B15" s="95"/>
       <c r="C15" s="100"/>
@@ -6891,7 +6983,7 @@
       <c r="Z15" s="68"/>
       <c r="AA15" s="93"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="62"/>
       <c r="B16" s="95"/>
       <c r="C16" s="95" t="s">
@@ -6932,7 +7024,7 @@
       <c r="Z16" s="68"/>
       <c r="AA16" s="93"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="62"/>
       <c r="B17" s="95"/>
       <c r="C17" s="95" t="s">
@@ -6978,7 +7070,7 @@
       <c r="Z17" s="68"/>
       <c r="AA17" s="93"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="62"/>
       <c r="B18" s="95"/>
       <c r="C18" s="95" t="s">
@@ -7018,7 +7110,7 @@
       <c r="Z18" s="68"/>
       <c r="AA18" s="93"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
       <c r="B19" s="104"/>
       <c r="C19" s="105"/>
@@ -7047,7 +7139,7 @@
       <c r="Z19" s="113"/>
       <c r="AA19" s="93"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
       <c r="B20" s="95"/>
       <c r="C20" s="100" t="s">
@@ -7122,7 +7214,7 @@
       </c>
       <c r="AA20" s="93"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="95"/>
       <c r="C21" s="100"/>
@@ -7168,7 +7260,7 @@
       </c>
       <c r="AA21" s="93"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="62"/>
       <c r="B22" s="95"/>
       <c r="C22" s="95" t="s">
@@ -7209,7 +7301,7 @@
       <c r="Z22" s="68"/>
       <c r="AA22" s="93"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
       <c r="B23" s="95"/>
       <c r="C23" s="95" t="s">
@@ -7255,7 +7347,7 @@
       <c r="Z23" s="68"/>
       <c r="AA23" s="93"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
       <c r="B24" s="95"/>
       <c r="C24" s="95" t="s">
@@ -7295,7 +7387,7 @@
       <c r="Z24" s="68"/>
       <c r="AA24" s="93"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="62"/>
       <c r="B25" s="104"/>
       <c r="C25" s="105"/>
@@ -7324,7 +7416,7 @@
       <c r="Z25" s="113"/>
       <c r="AA25" s="93"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
       <c r="B26" s="95"/>
       <c r="C26" s="204" t="s">
@@ -7399,7 +7491,7 @@
       </c>
       <c r="AA26" s="93"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="62"/>
       <c r="B27" s="95"/>
       <c r="C27" s="204"/>
@@ -7445,7 +7537,7 @@
       </c>
       <c r="AA27" s="93"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="62"/>
       <c r="B28" s="95"/>
       <c r="C28" s="95" t="s">
@@ -7486,7 +7578,7 @@
       <c r="Z28" s="68"/>
       <c r="AA28" s="93"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="62"/>
       <c r="B29" s="95"/>
       <c r="C29" s="95" t="s">
@@ -7532,7 +7624,7 @@
       <c r="Z29" s="68"/>
       <c r="AA29" s="93"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="62"/>
       <c r="B30" s="95"/>
       <c r="C30" s="95" t="s">
@@ -7572,7 +7664,7 @@
       <c r="Z30" s="17"/>
       <c r="AA30" s="93"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="91"/>
       <c r="C31" s="107"/>
@@ -7601,7 +7693,7 @@
       <c r="Z31" s="91"/>
       <c r="AA31" s="14"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="17"/>
       <c r="C32" s="58"/>
@@ -7630,7 +7722,7 @@
       <c r="Z32" s="17"/>
       <c r="AA32" s="14"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="16"/>
@@ -7659,7 +7751,7 @@
       <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="16"/>
@@ -7688,7 +7780,7 @@
       <c r="Z34" s="14"/>
       <c r="AA34" s="14"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="16"/>
@@ -7737,9 +7829,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor indexed="22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AB125"/>
@@ -7748,38 +7840,38 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.90625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="1.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.08984375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.6328125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="3.08984375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.36328125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="2.6328125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="8.6328125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="3.08984375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="10.36328125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.6328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.08984375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.36328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.6328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.6328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="3.08984375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.36328125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.08984375" style="1"/>
+    <col min="3" max="3" width="16.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="3.1640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="3.1640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="3.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.5">
+    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -7811,7 +7903,7 @@
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
     </row>
-    <row r="2" spans="1:28" ht="6" customHeight="1">
+    <row r="2" spans="1:28" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="14"/>
       <c r="C2" s="58"/>
@@ -7841,7 +7933,7 @@
       <c r="AA2" s="14"/>
       <c r="AB2" s="14"/>
     </row>
-    <row r="3" spans="1:28" ht="21.75" customHeight="1">
+    <row r="3" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="164" t="s">
         <v>11</v>
@@ -7883,7 +7975,7 @@
       <c r="AA3" s="14"/>
       <c r="AB3" s="14"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="62"/>
       <c r="B4" s="166" t="s">
         <v>5</v>
@@ -7915,7 +8007,7 @@
       <c r="AA4" s="93"/>
       <c r="AB4" s="14"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
       <c r="B5" s="116"/>
       <c r="C5" s="58"/>
@@ -7945,7 +8037,7 @@
       <c r="AA5" s="93"/>
       <c r="AB5" s="14"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="62"/>
       <c r="B6" s="64"/>
       <c r="C6" s="64" t="s">
@@ -8021,7 +8113,7 @@
       <c r="AA6" s="93"/>
       <c r="AB6" s="14"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="62"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
@@ -8068,7 +8160,7 @@
       <c r="AA7" s="93"/>
       <c r="AB7" s="14"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="62"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64" t="s">
@@ -8110,7 +8202,7 @@
       <c r="AA8" s="93"/>
       <c r="AB8" s="14"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="62"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64" t="s">
@@ -8157,7 +8249,7 @@
       <c r="AA9" s="93"/>
       <c r="AB9" s="14"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="62"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64" t="s">
@@ -8198,7 +8290,7 @@
       <c r="AA10" s="93"/>
       <c r="AB10" s="14"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="62"/>
       <c r="B11" s="118"/>
       <c r="C11" s="119"/>
@@ -8228,7 +8320,7 @@
       <c r="AA11" s="93"/>
       <c r="AB11" s="14"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="62"/>
       <c r="B12" s="64"/>
       <c r="C12" s="127" t="s">
@@ -8304,7 +8396,7 @@
       <c r="AA12" s="93"/>
       <c r="AB12" s="14"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="62"/>
       <c r="B13" s="64"/>
       <c r="C13" s="130"/>
@@ -8351,7 +8443,7 @@
       <c r="AA13" s="93"/>
       <c r="AB13" s="14"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="62"/>
       <c r="B14" s="64"/>
       <c r="C14" s="64" t="s">
@@ -8393,7 +8485,7 @@
       <c r="AA14" s="93"/>
       <c r="AB14" s="14"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64" t="s">
@@ -8440,7 +8532,7 @@
       <c r="AA15" s="93"/>
       <c r="AB15" s="14"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="62"/>
       <c r="B16" s="64"/>
       <c r="C16" s="64" t="s">
@@ -8481,7 +8573,7 @@
       <c r="AA16" s="93"/>
       <c r="AB16" s="14"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="62"/>
       <c r="B17" s="118"/>
       <c r="C17" s="132"/>
@@ -8511,7 +8603,7 @@
       <c r="AA17" s="93"/>
       <c r="AB17" s="14"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="62"/>
       <c r="B18" s="64"/>
       <c r="C18" s="134" t="s">
@@ -8587,7 +8679,7 @@
       <c r="AA18" s="93"/>
       <c r="AB18" s="14"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
@@ -8634,7 +8726,7 @@
       <c r="AA19" s="93"/>
       <c r="AB19" s="14"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64" t="s">
@@ -8676,7 +8768,7 @@
       <c r="AA20" s="93"/>
       <c r="AB20" s="14"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64" t="s">
@@ -8723,7 +8815,7 @@
       <c r="AA21" s="93"/>
       <c r="AB21" s="14"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="62"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64" t="s">
@@ -8764,7 +8856,7 @@
       <c r="AA22" s="93"/>
       <c r="AB22" s="14"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
       <c r="B23" s="118"/>
       <c r="C23" s="136"/>
@@ -8794,7 +8886,7 @@
       <c r="AA23" s="93"/>
       <c r="AB23" s="14"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
       <c r="B24" s="64"/>
       <c r="C24" s="203" t="s">
@@ -8870,7 +8962,7 @@
       <c r="AA24" s="93"/>
       <c r="AB24" s="14"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="62"/>
       <c r="B25" s="64"/>
       <c r="C25" s="203"/>
@@ -8917,7 +9009,7 @@
       <c r="AA25" s="93"/>
       <c r="AB25" s="14"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
       <c r="B26" s="64"/>
       <c r="C26" s="88"/>
@@ -8947,7 +9039,7 @@
       <c r="AA26" s="93"/>
       <c r="AB26" s="14"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="62"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64" t="s">
@@ -8989,7 +9081,7 @@
       <c r="AA27" s="93"/>
       <c r="AB27" s="14"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="62"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64" t="s">
@@ -9036,7 +9128,7 @@
       <c r="AA28" s="93"/>
       <c r="AB28" s="14"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="62"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64" t="s">
@@ -9077,7 +9169,7 @@
       <c r="AA29" s="93"/>
       <c r="AB29" s="14"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="62"/>
       <c r="B30" s="118"/>
       <c r="C30" s="132"/>
@@ -9107,7 +9199,7 @@
       <c r="AA30" s="93"/>
       <c r="AB30" s="14"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="62"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64" t="s">
@@ -9183,7 +9275,7 @@
       <c r="AA31" s="93"/>
       <c r="AB31" s="14"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="62"/>
       <c r="B32" s="64"/>
       <c r="C32" s="140"/>
@@ -9230,7 +9322,7 @@
       <c r="AA32" s="93"/>
       <c r="AB32" s="14"/>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="62"/>
       <c r="B33" s="64"/>
       <c r="C33" s="64" t="s">
@@ -9272,7 +9364,7 @@
       <c r="AA33" s="93"/>
       <c r="AB33" s="14"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="62"/>
       <c r="B34" s="64"/>
       <c r="C34" s="64" t="s">
@@ -9319,7 +9411,7 @@
       <c r="AA34" s="93"/>
       <c r="AB34" s="14"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="62"/>
       <c r="B35" s="64"/>
       <c r="C35" s="64" t="s">
@@ -9360,7 +9452,7 @@
       <c r="AA35" s="93"/>
       <c r="AB35" s="14"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="91"/>
       <c r="C36" s="106"/>
@@ -9390,7 +9482,7 @@
       <c r="AA36" s="14"/>
       <c r="AB36" s="14"/>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="102"/>
@@ -9420,7 +9512,7 @@
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="101"/>
@@ -9450,7 +9542,7 @@
       <c r="AA38" s="14"/>
       <c r="AB38" s="14"/>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="17"/>
       <c r="C39" s="58"/>
@@ -9480,7 +9572,7 @@
       <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="17"/>
       <c r="C40" s="58"/>
@@ -9510,7 +9602,7 @@
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -9527,7 +9619,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -9544,7 +9636,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B43" s="9"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -9561,7 +9653,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B44" s="9"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -9578,7 +9670,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -9595,7 +9687,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B46" s="9"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -9612,7 +9704,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B47" s="9"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -9629,7 +9721,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B48" s="9"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -9646,7 +9738,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="9"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -9663,7 +9755,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="9"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -9680,7 +9772,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="9"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -9697,7 +9789,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="9"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -9714,295 +9806,295 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="2:16">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="2:16">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="2:16">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="2:16">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="13:14">
+    <row r="65" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="13:14">
+    <row r="66" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="13:14">
+    <row r="67" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="13:14">
+    <row r="68" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="13:14">
+    <row r="69" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="13:14">
+    <row r="70" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="13:14">
+    <row r="71" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="13:14">
+    <row r="72" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="13:14">
+    <row r="73" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="13:14">
+    <row r="74" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="13:14">
+    <row r="75" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="13:14">
+    <row r="76" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="13:14">
+    <row r="77" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="13:14">
+    <row r="78" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="13:14">
+    <row r="79" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="13:14">
+    <row r="80" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="13:14">
+    <row r="81" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="13:14">
+    <row r="82" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="13:14">
+    <row r="83" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="13:14">
+    <row r="84" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="13:14">
+    <row r="85" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="13:14">
+    <row r="86" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="13:14">
+    <row r="87" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="13:14">
+    <row r="88" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="13:14">
+    <row r="89" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="13:14">
+    <row r="90" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="13:14">
+    <row r="91" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="13:14">
+    <row r="92" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="13:14">
+    <row r="93" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="13:14">
+    <row r="94" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="13:14">
+    <row r="95" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="13:14">
+    <row r="96" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="13:14">
+    <row r="97" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="13:14">
+    <row r="98" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="13:14">
+    <row r="99" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="13:14">
+    <row r="100" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="13:14">
+    <row r="101" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="13:14">
+    <row r="102" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="13:14">
+    <row r="103" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
     </row>
-    <row r="104" spans="13:14">
+    <row r="104" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="13:14">
+    <row r="105" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="13:14">
+    <row r="106" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="13:14">
+    <row r="107" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="13:14">
+    <row r="108" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
     </row>
-    <row r="109" spans="13:14">
+    <row r="109" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
     </row>
-    <row r="110" spans="13:14">
+    <row r="110" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="13:14">
+    <row r="111" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="13:14">
+    <row r="112" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="13:14">
+    <row r="113" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="13:14">
+    <row r="114" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="13:14">
+    <row r="115" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="13:14">
+    <row r="116" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="13:14">
+    <row r="117" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="13:14">
+    <row r="118" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="13:14">
+    <row r="119" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="13:14">
+    <row r="120" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="13:14">
+    <row r="121" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="13:14">
+    <row r="122" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="13:14">
+    <row r="123" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="13:14">
+    <row r="124" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="13:14">
+    <row r="125" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
@@ -10024,9 +10116,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor indexed="32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AC36"/>
@@ -10035,38 +10127,38 @@
       <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="3" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.6328125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="4" customWidth="1"/>
     <col min="13" max="13" width="3" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.36328125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="2.6328125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="3" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.36328125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.6328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="3" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.36328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.6328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.6328125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="3" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.36328125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.08984375" style="1"/>
+    <col min="26" max="26" width="10.33203125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.5">
+    <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -10099,7 +10191,7 @@
       <c r="AB1" s="14"/>
       <c r="AC1" s="14"/>
     </row>
-    <row r="2" spans="1:29" ht="6" customHeight="1">
+    <row r="2" spans="1:29" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="14"/>
       <c r="C2" s="58"/>
@@ -10130,7 +10222,7 @@
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
     </row>
-    <row r="3" spans="1:29" ht="21.75" customHeight="1">
+    <row r="3" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="164" t="s">
         <v>13</v>
@@ -10173,7 +10265,7 @@
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="62"/>
       <c r="B4" s="166" t="s">
         <v>5</v>
@@ -10206,7 +10298,7 @@
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
       <c r="B5" s="116"/>
       <c r="C5" s="58"/>
@@ -10237,7 +10329,7 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="62"/>
       <c r="B6" s="64"/>
       <c r="C6" s="64" t="s">
@@ -10314,7 +10406,7 @@
       <c r="AB6" s="14"/>
       <c r="AC6" s="14"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="62"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
@@ -10362,7 +10454,7 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="62"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64" t="s">
@@ -10405,7 +10497,7 @@
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="62"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64" t="s">
@@ -10453,7 +10545,7 @@
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="62"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64" t="s">
@@ -10495,7 +10587,7 @@
       <c r="AB10" s="14"/>
       <c r="AC10" s="14"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="62"/>
       <c r="B11" s="144"/>
       <c r="C11" s="118"/>
@@ -10526,7 +10618,7 @@
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="62"/>
       <c r="B12" s="64"/>
       <c r="C12" s="204" t="s">
@@ -10603,7 +10695,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="62"/>
       <c r="B13" s="64"/>
       <c r="C13" s="204"/>
@@ -10651,7 +10743,7 @@
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="62"/>
       <c r="B14" s="64"/>
       <c r="C14" s="88"/>
@@ -10682,7 +10774,7 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64" t="s">
@@ -10725,7 +10817,7 @@
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="62"/>
       <c r="B16" s="64"/>
       <c r="C16" s="64" t="s">
@@ -10773,7 +10865,7 @@
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="62"/>
       <c r="B17" s="64"/>
       <c r="C17" s="64" t="s">
@@ -10815,7 +10907,7 @@
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="62"/>
       <c r="B18" s="144"/>
       <c r="C18" s="118"/>
@@ -10846,7 +10938,7 @@
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
       <c r="B19" s="64"/>
       <c r="C19" s="64" t="s">
@@ -10923,7 +11015,7 @@
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
@@ -10971,7 +11063,7 @@
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64" t="s">
@@ -11014,7 +11106,7 @@
       <c r="AB21" s="14"/>
       <c r="AC21" s="14"/>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="62"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64" t="s">
@@ -11062,7 +11154,7 @@
       <c r="AB22" s="14"/>
       <c r="AC22" s="14"/>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64" t="s">
@@ -11104,7 +11196,7 @@
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
       <c r="B24" s="144"/>
       <c r="C24" s="118"/>
@@ -11135,7 +11227,7 @@
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="62"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64" t="s">
@@ -11212,7 +11304,7 @@
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -11260,7 +11352,7 @@
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="62"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64" t="s">
@@ -11303,7 +11395,7 @@
       <c r="AB27" s="14"/>
       <c r="AC27" s="14"/>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="62"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64" t="s">
@@ -11351,7 +11443,7 @@
       <c r="AB28" s="14"/>
       <c r="AC28" s="14"/>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="62"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64" t="s">
@@ -11393,7 +11485,7 @@
       <c r="AB29" s="14"/>
       <c r="AC29" s="14"/>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="91"/>
       <c r="C30" s="107"/>
@@ -11424,7 +11516,7 @@
       <c r="AB30" s="14"/>
       <c r="AC30" s="14"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="17"/>
       <c r="C31" s="58"/>
@@ -11455,7 +11547,7 @@
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="16"/>
@@ -11486,7 +11578,7 @@
       <c r="AB32" s="14"/>
       <c r="AC32" s="14"/>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="16"/>
@@ -11517,7 +11609,7 @@
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="16"/>
@@ -11548,7 +11640,7 @@
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="16"/>
@@ -11579,7 +11671,7 @@
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="16"/>
@@ -11628,9 +11720,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
-    <tabColor indexed="25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA33"/>
@@ -11639,38 +11731,38 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="3" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.6328125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="4" customWidth="1"/>
     <col min="13" max="13" width="3" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.36328125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="2.6328125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="3" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.36328125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.6328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="3" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.36328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.6328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.6328125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="3" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.36328125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.08984375" style="1"/>
+    <col min="26" max="26" width="10.33203125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.5">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -11701,7 +11793,7 @@
       <c r="Z1" s="14"/>
       <c r="AA1" s="14"/>
     </row>
-    <row r="2" spans="1:27" ht="6" customHeight="1">
+    <row r="2" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="14"/>
       <c r="C2" s="58"/>
@@ -11730,7 +11822,7 @@
       <c r="Z2" s="14"/>
       <c r="AA2" s="14"/>
     </row>
-    <row r="3" spans="1:27" ht="21.75" customHeight="1">
+    <row r="3" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="164" t="s">
         <v>14</v>
@@ -11771,7 +11863,7 @@
       <c r="Z3" s="205"/>
       <c r="AA3" s="14"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="62"/>
       <c r="B4" s="166" t="s">
         <v>5</v>
@@ -11802,7 +11894,7 @@
       <c r="Z4" s="166"/>
       <c r="AA4" s="93"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
       <c r="B5" s="145"/>
       <c r="C5" s="64"/>
@@ -11831,7 +11923,7 @@
       <c r="Z5" s="17"/>
       <c r="AA5" s="93"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="62"/>
       <c r="B6" s="145"/>
       <c r="C6" s="64" t="s">
@@ -11906,7 +11998,7 @@
       </c>
       <c r="AA6" s="17"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="62"/>
       <c r="B7" s="145"/>
       <c r="C7" s="64" t="s">
@@ -11954,7 +12046,7 @@
       </c>
       <c r="AA7" s="93"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="62"/>
       <c r="B8" s="145"/>
       <c r="C8" s="64"/>
@@ -11983,7 +12075,7 @@
       <c r="Z8" s="68"/>
       <c r="AA8" s="93"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="62"/>
       <c r="B9" s="145"/>
       <c r="C9" s="64" t="s">
@@ -12024,7 +12116,7 @@
       <c r="Z9" s="68"/>
       <c r="AA9" s="93"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="62"/>
       <c r="B10" s="145"/>
       <c r="C10" s="64" t="s">
@@ -12070,7 +12162,7 @@
       <c r="Z10" s="68"/>
       <c r="AA10" s="93"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="62"/>
       <c r="B11" s="145"/>
       <c r="C11" s="64" t="s">
@@ -12110,7 +12202,7 @@
       <c r="Z11" s="68"/>
       <c r="AA11" s="93"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="62"/>
       <c r="B12" s="146"/>
       <c r="C12" s="118"/>
@@ -12139,7 +12231,7 @@
       <c r="Z12" s="113"/>
       <c r="AA12" s="93"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="62"/>
       <c r="B13" s="64"/>
       <c r="C13" s="64" t="s">
@@ -12214,7 +12306,7 @@
       </c>
       <c r="AA13" s="93"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="62"/>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
@@ -12260,7 +12352,7 @@
       </c>
       <c r="AA14" s="93"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64" t="s">
@@ -12301,7 +12393,7 @@
       <c r="Z15" s="68"/>
       <c r="AA15" s="93"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="62"/>
       <c r="B16" s="64"/>
       <c r="C16" s="64" t="s">
@@ -12347,7 +12439,7 @@
       <c r="Z16" s="68"/>
       <c r="AA16" s="93"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="62"/>
       <c r="B17" s="64"/>
       <c r="C17" s="64" t="s">
@@ -12387,7 +12479,7 @@
       <c r="Z17" s="68"/>
       <c r="AA17" s="93"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="62"/>
       <c r="B18" s="144"/>
       <c r="C18" s="118"/>
@@ -12416,7 +12508,7 @@
       <c r="Z18" s="113"/>
       <c r="AA18" s="93"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
       <c r="B19" s="64"/>
       <c r="C19" s="203" t="s">
@@ -12491,7 +12583,7 @@
       </c>
       <c r="AA19" s="93"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
       <c r="B20" s="64"/>
       <c r="C20" s="203"/>
@@ -12537,7 +12629,7 @@
       </c>
       <c r="AA20" s="93"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="64"/>
       <c r="C21" s="88"/>
@@ -12566,7 +12658,7 @@
       <c r="Z21" s="68"/>
       <c r="AA21" s="93"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="62"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64" t="s">
@@ -12607,7 +12699,7 @@
       <c r="Z22" s="68"/>
       <c r="AA22" s="93"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64" t="s">
@@ -12653,7 +12745,7 @@
       <c r="Z23" s="68"/>
       <c r="AA23" s="93"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64" t="s">
@@ -12693,7 +12785,7 @@
       <c r="Z24" s="68"/>
       <c r="AA24" s="93"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="62"/>
       <c r="B25" s="144"/>
       <c r="C25" s="118"/>
@@ -12722,7 +12814,7 @@
       <c r="Z25" s="113"/>
       <c r="AA25" s="93"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64" t="s">
@@ -12797,7 +12889,7 @@
       </c>
       <c r="AA26" s="93"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="62"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -12843,7 +12935,7 @@
       </c>
       <c r="AA27" s="93"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="62"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64" t="s">
@@ -12884,7 +12976,7 @@
       <c r="Z28" s="68"/>
       <c r="AA28" s="93"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="62"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64" t="s">
@@ -12930,7 +13022,7 @@
       <c r="Z29" s="68"/>
       <c r="AA29" s="93"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="62"/>
       <c r="B30" s="64"/>
       <c r="C30" s="64" t="s">
@@ -12970,7 +13062,7 @@
       <c r="Z30" s="17"/>
       <c r="AA30" s="93"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="91"/>
       <c r="C31" s="107"/>
@@ -12999,7 +13091,7 @@
       <c r="Z31" s="91"/>
       <c r="AA31" s="14"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="17"/>
       <c r="C32" s="58"/>
@@ -13028,7 +13120,7 @@
       <c r="Z32" s="17"/>
       <c r="AA32" s="14"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="16"/>
